--- a/LubanTool/Config/Datas/monster.xlsx
+++ b/LubanTool/Config/Datas/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61066572-13B5-4919-B8DB-1C78404920BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622651EC-AD53-4642-9F34-04E3D5151ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1650" windowWidth="25065" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1200" windowWidth="25065" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -118,10 +118,6 @@
     <t>desc</t>
   </si>
   <si>
-    <t>角色0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模板角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,6 +175,14 @@
   </si>
   <si>
     <t>item.EQuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +680,7 @@
   <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,16 +714,16 @@
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>2</v>
@@ -840,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>15</v>
@@ -882,7 +886,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -890,7 +894,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>19</v>
@@ -899,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
@@ -931,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>21</v>
@@ -940,16 +944,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>23</v>
@@ -996,10 +1000,10 @@
         <v>10000</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="20">
         <v>1000000</v>
@@ -1040,10 +1044,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="20">
         <v>100</v>
@@ -1080,20 +1084,48 @@
       </c>
     </row>
     <row r="8" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="B8" s="20">
+        <v>10002</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20">
+        <v>100</v>
+      </c>
+      <c r="F8" s="20">
+        <v>100</v>
+      </c>
+      <c r="G8" s="20">
+        <v>100</v>
+      </c>
+      <c r="H8" s="20">
+        <v>100</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="23">
+        <v>10001</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>

--- a/LubanTool/Config/Datas/monster.xlsx
+++ b/LubanTool/Config/Datas/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622651EC-AD53-4642-9F34-04E3D5151ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A83989-EEFE-4F55-8E82-DC6A0001E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1200" windowWidth="25065" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="915" windowWidth="23805" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -70,119 +70,144 @@
     <t>item.ItemExchange</t>
   </si>
   <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>过期时间</t>
+  </si>
+  <si>
+    <t>能否批量使用</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>道具兑换配置</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>10001,2</t>
+  </si>
+  <si>
+    <t>10001,2;10002,3</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>模板角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木桩怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c,s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个木桩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.EQuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(list#sep=;),item.ItemExchange</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-  </si>
-  <si>
-    <t>能否批量使用</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>道具兑换配置</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>10001,2</t>
-  </si>
-  <si>
-    <t>10001,2;10002,3</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>模板角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>木桩怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c,s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一个木桩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.EQuality</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardRang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,16 +716,18 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,42 +738,46 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="3"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -766,8 +797,10 @@
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
     </row>
-    <row r="2" spans="1:37" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,15 +816,15 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -811,8 +844,10 @@
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
     </row>
-    <row r="3" spans="1:37" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -838,27 +873,31 @@
         <v>11</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="26" t="s">
+      <c r="O3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -878,38 +917,40 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
     </row>
-    <row r="4" spans="1:37" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -929,52 +970,58 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="N5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="O5" s="18"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="P5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -994,16 +1041,18 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
     </row>
-    <row r="6" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
         <v>10000</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="20">
         <v>1000000</v>
@@ -1017,37 +1066,43 @@
       <c r="H6" s="20">
         <v>100</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="23" t="b">
+      <c r="I6" s="20">
+        <v>10</v>
+      </c>
+      <c r="J6" s="20">
+        <v>1001</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="M6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="23">
+      <c r="P6" s="23">
         <v>10001</v>
       </c>
-      <c r="O6" s="23">
+      <c r="Q6" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20">
         <v>10001</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="20">
         <v>100</v>
@@ -1061,37 +1116,43 @@
       <c r="H7" s="20">
         <v>100</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="23" t="b">
+      <c r="I7" s="20">
+        <v>10</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1001</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="M7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="O7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="23">
+      <c r="P7" s="23">
         <v>10001</v>
       </c>
-      <c r="O7" s="23">
+      <c r="Q7" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20">
         <v>10002</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="20">
         <v>100</v>
@@ -1105,132 +1166,78 @@
       <c r="H8" s="20">
         <v>100</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="23" t="b">
+      <c r="I8" s="20">
+        <v>10</v>
+      </c>
+      <c r="J8" s="20">
+        <v>1001</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="M8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="O8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="P8" s="23">
         <v>10001</v>
       </c>
-      <c r="O8" s="23">
+      <c r="Q8" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+    <row r="9" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
+    <row r="10" spans="1:39" s="4" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:37" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:37" s="4" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="17" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:39" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:39" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:39" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:39" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanTool/Config/Datas/monster.xlsx
+++ b/LubanTool/Config/Datas/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A83989-EEFE-4F55-8E82-DC6A0001E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51013DCF-4BD7-4967-8B9F-89CBDA0CB097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="915" windowWidth="23805" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="915" windowWidth="25770" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -199,15 +199,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=;),int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>guardRang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>警戒范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),skill.SkillWeight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,10;1002,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +713,7 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,7 +761,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>50</v>
@@ -876,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>13</v>
@@ -999,7 +1007,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>49</v>
@@ -1069,8 +1077,8 @@
       <c r="I6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="20">
-        <v>1001</v>
+      <c r="J6" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>29</v>
@@ -1119,8 +1127,8 @@
       <c r="I7" s="20">
         <v>10</v>
       </c>
-      <c r="J7" s="20">
-        <v>1001</v>
+      <c r="J7" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>29</v>
@@ -1169,8 +1177,8 @@
       <c r="I8" s="20">
         <v>10</v>
       </c>
-      <c r="J8" s="20">
-        <v>1001</v>
+      <c r="J8" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>48</v>
